--- a/Project1Rubric_Villareal.xlsx
+++ b/Project1Rubric_Villareal.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tevis\Documents\WestMEC\START\Projects\Project1WebEssay\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tevis\Documents\WestMEC\START\Projects\Project1WebEssay\Session2Graded\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Rough Draft (30 pts)" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="61">
   <si>
     <t>CATEGORY</t>
   </si>
@@ -196,6 +196,15 @@
   <si>
     <t>30/30</t>
   </si>
+  <si>
+    <t>I would explect to see something in CSS in your page.</t>
+  </si>
+  <si>
+    <t>You should eliminate some of the extra space by utilizing CSS float.</t>
+  </si>
+  <si>
+    <t>38/40</t>
+  </si>
 </sst>
 </file>
 
@@ -321,13 +330,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,7 +653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F995"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -670,13 +679,13 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -759,7 +768,7 @@
       <c r="A13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -782,7 +791,7 @@
       <c r="B14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="15" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="12" t="s">
@@ -799,7 +808,7 @@
       <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -7718,13 +7727,13 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -7807,7 +7816,7 @@
       <c r="A13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -7824,7 +7833,7 @@
       <c r="A14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -7841,7 +7850,7 @@
       <c r="A15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -14728,8 +14737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F997"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14739,51 +14748,53 @@
     <col min="7" max="26" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
@@ -14792,21 +14803,21 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>52</v>
       </c>
@@ -14815,14 +14826,14 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>0</v>
       </c>
@@ -14839,14 +14850,14 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="15" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="12" t="s">
@@ -14855,12 +14866,15 @@
       <c r="E13" s="12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -14873,11 +14887,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -14890,11 +14904,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -14907,14 +14921,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="12" t="s">
@@ -14923,15 +14937,18 @@
       <c r="E17" s="12" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F17" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -14940,91 +14957,91 @@
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
     </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
